--- a/patient_data/patient_48.xlsx
+++ b/patient_data/patient_48.xlsx
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1442,55 +1442,55 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="S14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2206,13 +2206,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
